--- a/data/referentiel/chantier.xlsx
+++ b/data/referentiel/chantier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\referentiel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1138D2FE-487C-44DE-9F6D-62E877FBEF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD2724-91F0-4316-99F6-35B893E02A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>id_chantier</t>
   </si>
   <si>
     <t>zone</t>
-  </si>
-  <si>
-    <t>abs</t>
   </si>
 </sst>
 </file>
@@ -323,7 +320,7 @@
   <dimension ref="A1:G993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -470,12 +467,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
